--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -38,25 +38,476 @@
     <t>签到</t>
   </si>
   <si>
-    <t>#cccccc</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>#F2F2F2</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
+&lt;svg
+   xmlns:dc="http://purl.org/dc/elements/1.1/"
+   xmlns:cc="http://creativecommons.org/ns#"
+   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
+   xmlns:svg="http://www.w3.org/2000/svg"
+   xmlns="http://www.w3.org/2000/svg"
+   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
+   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
+   width="70"
+   height="70"
+   viewBox="0 0 18.520833 18.520834"
+   version="1.1"
+   id="svg8"
+   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   sodipodi:docname="签到.svg"&gt;
+  &lt;defs
+     id="defs2" /&gt;
+  &lt;sodipodi:namedview
+     id="base"
+     pagecolor="#ffffff"
+     bordercolor="#666666"
+     borderopacity="1.0"
+     inkscape:pageopacity="0.0"
+     inkscape:pageshadow="2"
+     inkscape:zoom="16.000001"
+     inkscape:cx="50.978551"
+     inkscape:cy="24.559194"
+     inkscape:document-units="mm"
+     inkscape:current-layer="layer1"
+     showgrid="true"
+     units="px"
+     inkscape:window-width="1280"
+     inkscape:window-height="715"
+     inkscape:window-x="0"
+     inkscape:window-y="27"
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:object-nodes="true"
+     inkscape:snap-others="true"
+     inkscape:snap-nodes="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:bbox-paths="true"
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="false"&gt;
+    &lt;inkscape:grid
+       type="xygrid"
+       id="grid815" /&gt;
+  &lt;/sodipodi:namedview&gt;
+  &lt;metadata
+     id="metadata5"&gt;
+    &lt;rdf:RDF&gt;
+      &lt;cc:Work
+         rdf:about=""&gt;
+        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
+        &lt;dc:type
+           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
+        &lt;dc:title /&gt;
+      &lt;/cc:Work&gt;
+    &lt;/rdf:RDF&gt;
+  &lt;/metadata&gt;
+  &lt;g
+     inkscape:label="Layer 1"
+     inkscape:groupmode="layer"
+     id="layer1"
+     transform="translate(0,-278.47915)"&gt;
+    &lt;g
+       id="g897"
+       transform="translate(-10.318751,-8.73125)"
+       style="fill:#cccccc"&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccccc"
+         inkscape:connector-curvature="0"
+         id="path837-5"
+         d="m 13.229167,294.35415 v 7.9375 l 1.322916,1.32292 h 10.583334 l 1.322917,-1.32292 c 0,-10.58333 0,-10.58333 0,-10.58333 H 13.229167 Z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="ccccc"
+         inkscape:connector-curvature="0"
+         id="path839-6"
+         d="m 15.875,294.35415 v -3.96875 h 1.322917 v 3.96875 z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="ccccc"
+         inkscape:connector-curvature="0"
+         id="path841-2"
+         d="m 22.489584,294.35415 v -3.96875 h 1.322917 v 3.96875 z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="ccccc"
+         inkscape:connector-curvature="0"
+         id="path845-9"
+         d="m 14.552083,303.61457 v -10.58333 h 10.583334 v 10.58333 z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;path
+       style="fill:#b3b3b3;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 2.6458333,285.09373 v 7.9375 L 3.96875,294.35415 H 14.552083 L 15.875,293.03123 c 0,-10.58333 0,-10.58333 0,-10.58333 H 2.6458333 Z"
+       id="path837"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="cccccccc" /&gt;
+    &lt;path
+       style="fill:#808080;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 5.2916666,285.09373 1e-7,-3.96875 h 1.3229166 l -10e-8,3.96875 z"
+       id="path839"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="ccccc" /&gt;
+    &lt;path
+       style="fill:#808080;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 11.90625,285.09373 v -3.96875 h 1.322917 v 3.96875 z"
+       id="path841"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="ccccc" /&gt;
+    &lt;path
+       style="fill:#e6e6e6;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.96875,294.35415 v -10.58333 h 10.583333 v 10.58333 z"
+       id="path845"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="ccccc" /&gt;
+    &lt;path
+       style="fill:#008080;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 14.552083,282.4479 -5.2916664,5.29167 v 1.32291 H 10.583333 L 15.875,283.77082 Z"
+       id="path843"
+       inkscape:connector-curvature="0" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
   </si>
   <si>
     <t>经验</t>
   </si>
   <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
+&lt;svg
+   xmlns:dc="http://purl.org/dc/elements/1.1/"
+   xmlns:cc="http://creativecommons.org/ns#"
+   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
+   xmlns:svg="http://www.w3.org/2000/svg"
+   xmlns="http://www.w3.org/2000/svg"
+   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
+   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
+   width="70"
+   height="70"
+   viewBox="0 0 18.520833 18.520834"
+   version="1.1"
+   id="svg8"
+   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   sodipodi:docname="经验.svg"&gt;
+  &lt;defs
+     id="defs2" /&gt;
+  &lt;sodipodi:namedview
+     id="base"
+     pagecolor="#ffffff"
+     bordercolor="#666666"
+     borderopacity="1.0"
+     inkscape:pageopacity="0.0"
+     inkscape:pageshadow="2"
+     inkscape:zoom="8.0000004"
+     inkscape:cx="24.500141"
+     inkscape:cy="41.106197"
+     inkscape:document-units="mm"
+     inkscape:current-layer="layer1"
+     showgrid="true"
+     units="px"
+     inkscape:window-width="1280"
+     inkscape:window-height="715"
+     inkscape:window-x="0"
+     inkscape:window-y="27"
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:object-nodes="false"
+     inkscape:snap-others="false"
+     inkscape:snap-nodes="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:bbox-paths="false"
+     inkscape:object-paths="true"&gt;
+    &lt;inkscape:grid
+       type="xygrid"
+       id="grid815" /&gt;
+  &lt;/sodipodi:namedview&gt;
+  &lt;metadata
+     id="metadata5"&gt;
+    &lt;rdf:RDF&gt;
+      &lt;cc:Work
+         rdf:about=""&gt;
+        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
+        &lt;dc:type
+           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
+        &lt;dc:title /&gt;
+      &lt;/cc:Work&gt;
+    &lt;/rdf:RDF&gt;
+  &lt;/metadata&gt;
+  &lt;g
+     inkscape:label="Layer 1"
+     inkscape:groupmode="layer"
+     id="layer1"
+     transform="translate(0,-278.47915)"&gt;
+    &lt;path
+       sodipodi:type="star"
+       style="opacity:1;fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
+       id="path820-3"
+       sodipodi:sides="5"
+       sodipodi:cx="9.2914486"
+       sodipodi:cy="288.26797"
+       sodipodi:r1="6.614583"
+       sodipodi:r2="3.3072915"
+       sodipodi:arg1="0.92729522"
+       sodipodi:arg2="1.5556137"
+       inkscape:flatsided="false"
+       inkscape:rounded="0"
+       inkscape:randomized="0"
+       d="m 13.260198,293.55964 -3.918538,-1.98475 -3.8564741,2.10281 0.6767203,-4.34008 -3.1916071,-3.01792 4.3367745,-0.69756 1.8839524,-3.96799 2.003554,3.90896 4.355954,0.56557 -3.098511,3.11343 z"
+       inkscape:transform-center-x="0.032633329"
+       inkscape:transform-center-y="-0.66242747"
+       transform="matrix(1.0515835,0,0,1.1002721,-0.21310117,-28.242058)" /&gt;
+    &lt;path
+       sodipodi:type="star"
+       style="opacity:1;fill:#ff9955;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
+       id="path820"
+       sodipodi:sides="5"
+       sodipodi:cx="9.2914486"
+       sodipodi:cy="288.26797"
+       sodipodi:r1="6.614583"
+       sodipodi:r2="3.3072915"
+       sodipodi:arg1="0.92729522"
+       sodipodi:arg2="1.5556137"
+       inkscape:flatsided="false"
+       inkscape:rounded="0"
+       inkscape:randomized="0"
+       d="m 13.260198,293.55964 -3.918538,-1.98475 -3.8564741,2.10281 0.6767203,-4.34008 -3.1916071,-3.01792 4.3367745,-0.69756 1.8839524,-3.96799 2.003554,3.90896 4.355954,0.56557 -3.098511,3.11343 z"
+       inkscape:transform-center-x="0.032633329"
+       inkscape:transform-center-y="-0.66242747"
+       transform="matrix(1.0515835,0,0,1.1002721,-0.47768423,-28.771223)" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
     <t>签到天数</t>
   </si>
   <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
+&lt;svg
+   xmlns:dc="http://purl.org/dc/elements/1.1/"
+   xmlns:cc="http://creativecommons.org/ns#"
+   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
+   xmlns:svg="http://www.w3.org/2000/svg"
+   xmlns="http://www.w3.org/2000/svg"
+   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
+   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
+   width="70"
+   height="70"
+   viewBox="0 0 18.520833 18.520834"
+   version="1.1"
+   id="svg8"
+   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   sodipodi:docname="签到天数.svg"&gt;
+  &lt;defs
+     id="defs2" /&gt;
+  &lt;sodipodi:namedview
+     id="base"
+     pagecolor="#ffffff"
+     bordercolor="#666666"
+     borderopacity="1.0"
+     inkscape:pageopacity="0.0"
+     inkscape:pageshadow="2"
+     inkscape:zoom="16.000001"
+     inkscape:cx="44.253959"
+     inkscape:cy="21.472525"
+     inkscape:document-units="mm"
+     inkscape:current-layer="layer1"
+     showgrid="true"
+     units="px"
+     inkscape:window-width="1280"
+     inkscape:window-height="715"
+     inkscape:window-x="0"
+     inkscape:window-y="27"
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:object-nodes="true"
+     inkscape:snap-others="true"
+     inkscape:snap-nodes="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:bbox-paths="true"
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"&gt;
+    &lt;inkscape:grid
+       type="xygrid"
+       id="grid815" /&gt;
+  &lt;/sodipodi:namedview&gt;
+  &lt;metadata
+     id="metadata5"&gt;
+    &lt;rdf:RDF&gt;
+      &lt;cc:Work
+         rdf:about=""&gt;
+        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
+        &lt;dc:type
+           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
+        &lt;dc:title /&gt;
+      &lt;/cc:Work&gt;
+    &lt;/rdf:RDF&gt;
+  &lt;/metadata&gt;
+  &lt;g
+     inkscape:label="Layer 1"
+     inkscape:groupmode="layer"
+     id="layer1"
+     transform="translate(0,-278.47915)"&gt;
+    &lt;path
+       style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 4.2333316,285.6229 c 0,0 -2.8e-6,-2.64583 2.6458333,-2.64583 h 5.2916681 c 0,0 2.645835,-1e-5 2.645834,2.64583 v 5.29167 c 0,0 0,2.64583 -2.645834,2.64583 H 6.8791649 c 0,0 -2.6458333,0 -2.6458333,-2.64583 z"
+       id="path838-3"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="cscscscsc" /&gt;
+    &lt;path
+       style="fill:#aade87;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.96875,285.09373 c 0,0 -2.8e-6,-2.64583 2.6458333,-2.64583 H 11.90625 c 0,0 2.645834,-1e-5 2.645833,2.64583 l 0,5.29167 c 0,0 0,2.64583 -2.645833,2.64583 H 6.6145833 c 0,0 -2.6458333,0 -2.6458333,-2.64583 z"
+       id="path838"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="cscscscsc" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
     <t>帐户年龄</t>
   </si>
   <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
+&lt;svg
+   xmlns:dc="http://purl.org/dc/elements/1.1/"
+   xmlns:cc="http://creativecommons.org/ns#"
+   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
+   xmlns:svg="http://www.w3.org/2000/svg"
+   xmlns="http://www.w3.org/2000/svg"
+   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
+   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
+   width="70"
+   height="70"
+   viewBox="0 0 18.520833 18.520834"
+   version="1.1"
+   id="svg8"
+   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   sodipodi:docname="帐户年龄.svg"&gt;
+  &lt;defs
+     id="defs2" /&gt;
+  &lt;sodipodi:namedview
+     id="base"
+     pagecolor="#ffffff"
+     bordercolor="#666666"
+     borderopacity="1.0"
+     inkscape:pageopacity="0.0"
+     inkscape:pageshadow="2"
+     inkscape:zoom="11.313709"
+     inkscape:cx="41.22735"
+     inkscape:cy="25.905066"
+     inkscape:document-units="mm"
+     inkscape:current-layer="layer1"
+     showgrid="true"
+     units="px"
+     inkscape:window-width="1280"
+     inkscape:window-height="715"
+     inkscape:window-x="0"
+     inkscape:window-y="27"
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:object-nodes="true"
+     inkscape:snap-others="true"
+     inkscape:snap-nodes="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:bbox-paths="true"
+     inkscape:object-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-intersection-paths="true"&gt;
+    &lt;inkscape:grid
+       type="xygrid"
+       id="grid815" /&gt;
+  &lt;/sodipodi:namedview&gt;
+  &lt;metadata
+     id="metadata5"&gt;
+    &lt;rdf:RDF&gt;
+      &lt;cc:Work
+         rdf:about=""&gt;
+        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
+        &lt;dc:type
+           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
+      &lt;/cc:Work&gt;
+    &lt;/rdf:RDF&gt;
+  &lt;/metadata&gt;
+  &lt;g
+     inkscape:label="Layer 1"
+     inkscape:groupmode="layer"
+     id="layer1"
+     transform="translate(0,-278.47915)"&gt;
+    &lt;g
+       id="g886"
+       style="fill:#cccccc"
+       transform="translate(-2.3812507,0.52916667)"&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccccc"
+         inkscape:connector-curvature="0"
+         id="path837-3"
+         d="m 5.2916666,283.77082 v 9.26041 l 1.3229167,1.32292 H 17.197917 l 1.322917,-1.32292 V 282.4479 H 5.2916666 Z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="ccccc"
+         inkscape:connector-curvature="0"
+         id="path845-6"
+         d="M 6.6145833,294.35415 V 283.77082 H 17.197917 v 10.58333 z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path841-7"
+         d="m 14.552084,285.09373 v -3.96875 h 1.322917 v 3.96875 z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.32404742px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path839-5"
+         d="m 7.9374999,285.09373 v -3.96875 h 1.3229167 v 3.96875 z"
+         style="fill:#cccccc;stroke:none;stroke-width:0.32404715px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;path
+       style="fill:#cd87de;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 2.6458333,283.77082 v 9.26041 L 3.96875,294.35415 H 14.552083 L 15.875,293.03123 V 282.4479 H 2.6458333 Z"
+       id="path837"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="cccccccc" /&gt;
+    &lt;path
+       style="fill:#eed7f4;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.96875,294.35415 v -10.58333 h 10.583333 v 10.58333 z"
+       id="path845"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="ccccc" /&gt;
+    &lt;path
+       style="fill:#ab37c8;stroke:none;stroke-width:0.32404742px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 11.90625,285.09373 v -3.96875 h 1.322917 v 3.96875 z"
+       id="path841"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;path
+       style="fill:#bc5fd3;stroke:none;stroke-width:0.32404715px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 5.2916667,285.09373 v -3.96875 h 1.3229166 v 3.96875 z"
+       id="path839"
+       inkscape:connector-curvature="0" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
     <t>活跃分析</t>
-  </si>
-  <si>
-    <t>#F2F2F2</t>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
@@ -86,8 +537,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="11.313709"
-     inkscape:cx="33.651102"
-     inkscape:cy="35.97728"
+     inkscape:cx="43.253797"
+     inkscape:cy="34.131519"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -109,7 +560,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -119,27 +570,17 @@
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
     &lt;path
-       style="fill:#feffff;fill-opacity:1;stroke:#5cd4c6;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 0,278.47915 h 18.520833 v 18.52083 H 0 Z"
-       id="path4553"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
        style="fill:#e6e6e6;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="M 1.8520811,288.26873 H 5.820831 l 2.6458333,-5.29167 2.6458337,10.58333 2.645836,-5.29166 h 5.291665 v 0 h -1.322915 -3.96875 l -2.645836,5.29166 -2.6458337,-10.58333 -2.6458333,5.29167 z"
+       d="M 1.8520811,288.26873 H 5.820831 l 2.6458333,-5.29167 2.6458337,10.58333 2.645836,-5.29166 3.439583,0 v 0 0 l -3.439583,0 -2.645836,5.29166 -2.6458337,-10.58333 -2.6458333,5.29167 z"
        id="path4522-6"
        inkscape:connector-curvature="0"
        sodipodi:nodetypes="ccccccccccccc" /&gt;
     &lt;path
        style="fill:#00a996;fill-opacity:1;stroke:#00d4c6;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 1.3229167,287.73957 h 3.9687499 l 2.6458333,-5.29167 2.6458331,10.58333 2.645834,-5.29166 h 5.291666 v 0 h -1.322916 -3.96875 l -2.645834,5.29166 -2.6458331,-10.58333 -2.6458333,5.29167 z"
+       d="m 1.3229167,287.73957 h 3.9687499 l 2.6458333,-5.29167 2.6458331,10.58333 2.645834,-5.29166 3.96875,0 v 0 H 15.875 l -2.645833,0 -2.645834,5.29166 -2.6458331,-10.58333 -2.6458333,5.29167 z"
        id="path4522"
        inkscape:connector-curvature="0"
        sodipodi:nodetypes="ccccccccccccc" /&gt;
-    &lt;path
-       style="fill:none;stroke:#00d4c6;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
-       inkscape:connector-curvature="0" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -173,9 +614,9 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="8"
-     inkscape:cx="6.8891847"
-     inkscape:cy="27.687088"
+     inkscape:zoom="4"
+     inkscape:cx="-24.956281"
+     inkscape:cy="24.181048"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -197,7 +638,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -206,11 +647,6 @@
      inkscape:groupmode="layer"
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#feffff;stroke:#4469bb;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="m 0,278.47915 h 18.520833 v 18.52083 H 0 Z"
-       id="path4553"
-       inkscape:connector-curvature="0" /&gt;
     &lt;path
        style="opacity:1;fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:0.75302655;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
        id="path5125-3"
@@ -224,11 +660,6 @@
        sodipodi:open="true"
        d="m 11.976921,284.6882 a 2.4613752,2.4006782 0 0 1 -2.4598179,2.40068 2.4613752,2.4006782 0 0 1 -2.4629305,-2.39764 2.4613752,2.4006782 0 0 1 2.4567015,-2.40371 2.4613752,2.4006782 0 0 1 2.4660389,2.3946" /&gt;
     &lt;path
-       style="fill:none;stroke:#4469bb;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
        style="fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
        d="m 9.5249993,286.94582 v 3.37343 z"
        id="path5129-6"
@@ -285,6 +716,115 @@
   </si>
   <si>
     <t>论坛排行</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
+&lt;svg
+   xmlns:dc="http://purl.org/dc/elements/1.1/"
+   xmlns:cc="http://creativecommons.org/ns#"
+   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
+   xmlns:svg="http://www.w3.org/2000/svg"
+   xmlns="http://www.w3.org/2000/svg"
+   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
+   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
+   width="70"
+   height="70"
+   viewBox="0 0 18.520833 18.520834"
+   version="1.1"
+   id="svg8"
+   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   sodipodi:docname="论坛排行.svg"&gt;
+  &lt;defs
+     id="defs2" /&gt;
+  &lt;sodipodi:namedview
+     id="base"
+     pagecolor="#ffffff"
+     bordercolor="#666666"
+     borderopacity="1.0"
+     inkscape:pageopacity="0.0"
+     inkscape:pageshadow="2"
+     inkscape:zoom="8.0000004"
+     inkscape:cx="39.601293"
+     inkscape:cy="25.004109"
+     inkscape:document-units="mm"
+     inkscape:current-layer="layer1"
+     showgrid="true"
+     units="px"
+     inkscape:window-width="1280"
+     inkscape:window-height="715"
+     inkscape:window-x="0"
+     inkscape:window-y="27"
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:object-nodes="false"
+     inkscape:snap-others="false"
+     inkscape:snap-nodes="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:bbox-paths="false"
+     inkscape:object-paths="true"
+     showguides="false"&gt;
+    &lt;inkscape:grid
+       type="xygrid"
+       id="grid815" /&gt;
+  &lt;/sodipodi:namedview&gt;
+  &lt;metadata
+     id="metadata5"&gt;
+    &lt;rdf:RDF&gt;
+      &lt;cc:Work
+         rdf:about=""&gt;
+        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
+        &lt;dc:type
+           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
+        &lt;dc:title /&gt;
+      &lt;/cc:Work&gt;
+    &lt;/rdf:RDF&gt;
+  &lt;/metadata&gt;
+  &lt;g
+     inkscape:label="Layer 1"
+     inkscape:groupmode="layer"
+     id="layer1"
+     transform="translate(0,-278.47915)"&gt;
+    &lt;g
+       id="g854"
+       transform="translate(-6.35,-0.26458333)"
+       style="fill:#cccccc"&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path840-36"
+         d="m 9.2604167,289.85623 h 3.9687503 v 5.29167 H 9.2604167 Z"
+         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.23665057px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path840-3-7"
+         d="m 13.890626,282.4479 h 3.968748 v 12.7 h -3.968748 z"
+         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.36661747px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path840-6-5"
+         d="m 18.520833,287.2104 h 3.96875 v 7.9375 h -3.96875 z"
+         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.28983644px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;path
+       style="fill:#5f8dd3;fill-opacity:1;stroke:none;stroke-width:0.23665057px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 2.6458333,289.06248 h 3.9687499 v 5.29167 H 2.6458333 Z"
+       id="path840"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;path
+       style="fill:#5f8dd3;fill-opacity:1;stroke:none;stroke-width:0.36661747px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 7.2760422,281.65415 h 3.9687488 v 12.7 H 7.2760422 Z"
+       id="path840-3"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;path
+       style="fill:#5f8dd3;fill-opacity:1;stroke:none;stroke-width:0.28983644px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 11.90625,286.41665 H 15.875 v 7.9375 h -3.96875 z"
+       id="path840-6"
+       inkscape:connector-curvature="0" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
   </si>
   <si>
     <t>反馈</t>
@@ -317,8 +857,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="5.656854"
-     inkscape:cx="10.434007"
-     inkscape:cy="29.29071"
+     inkscape:cx="28.553619"
+     inkscape:cy="33.886904"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -340,7 +880,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -349,16 +889,6 @@
      inkscape:groupmode="layer"
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#feffff;stroke:#4469bb;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="m 0,278.47915 h 18.520833 v 18.52083 H 0 Z"
-       id="path4553"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:none;stroke:#c76962;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
-       inkscape:connector-curvature="0" /&gt;
     &lt;path
        inkscape:connector-curvature="0"
        id="path822-3"
@@ -401,9 +931,9 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="8.0000004"
-     inkscape:cx="47.399594"
-     inkscape:cy="18.415185"
+     inkscape:zoom="4.0000002"
+     inkscape:cx="-4.4832477"
+     inkscape:cy="39.822641"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -435,7 +965,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -445,11 +975,6 @@
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
     &lt;path
-       style="fill:#feffff;stroke:#4469bb;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="m 0,278.47915 h 18.520833 v 18.52083 H 0 Z"
-       id="path4553"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
        style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 8.7312449,287.21035 2.1166651,2.11667 -1.0583327,4.23333 -6.6145794,1.32292 1.3229154,-6.61458 z"
        id="path912-3"
@@ -464,11 +989,6 @@
        style="fill:#8b8988;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
        d="m 8.2020832,286.68123 2.1166668,2.11667 -1.0583334,4.23333 -6.6145833,1.32292 1.3229167,-6.61458 z"
        id="path912"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:none;stroke:#8b8988;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
        inkscape:connector-curvature="0" /&gt;
     &lt;path
        style="fill:#ffffff;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
@@ -527,8 +1047,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="4.0000002"
-     inkscape:cx="-35.624991"
-     inkscape:cy="35.113775"
+     inkscape:cx="21.000006"
+     inkscape:cy="34.363775"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -561,7 +1081,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -570,11 +1090,6 @@
      inkscape:groupmode="layer"
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#ffffff;stroke:#37c871;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1;fill-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
-       inkscape:connector-curvature="0" /&gt;
     &lt;path
        style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 1.587499,286.41665 v 5.29167 l 6.350001,3.70417 9.525001,-8.99584 v -5.29166 l -9.260419,10.58333 z"
@@ -620,9 +1135,9 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="8.0000004"
-     inkscape:cx="17.452259"
-     inkscape:cy="29.847886"
+     inkscape:zoom="5.6568545"
+     inkscape:cx="37.798153"
+     inkscape:cy="36.399471"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -656,7 +1171,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -665,11 +1180,6 @@
      inkscape:groupmode="layer"
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#ffffff;stroke:#bc5fd3;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1;fill-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
-       inkscape:connector-curvature="0" /&gt;
     &lt;path
        style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 2.9104154,284.29998 v 3.96875 l 6.6145839,6.61459 6.6145837,-6.61459 v -3.96875 l -2.645833,-2.64583 v 0 l -3.9687507,3.96875 -3.9687509,-3.96875 v 0 z"
@@ -732,8 +1242,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="4.0000002"
-     inkscape:cx="-16.17895"
-     inkscape:cy="39.913034"
+     inkscape:cx="61.196046"
+     inkscape:cy="35.163034"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -767,7 +1277,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -776,11 +1286,6 @@
      inkscape:groupmode="layer"
      id="layer1"
      transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#ffffff;stroke:#bc5fd3;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1;fill-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
-       inkscape:connector-curvature="0" /&gt;
     &lt;g
        id="g894"
        transform="translate(12.170833,0.52915993)"
@@ -912,8 +1417,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="8.0000004"
-     inkscape:cx="14.954891"
-     inkscape:cy="30.924274"
+     inkscape:cx="11.642391"
+     inkscape:cy="40.174274"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -947,7 +1452,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title /&gt;
+        &lt;dc:title&gt;&lt;/dc:title&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -960,11 +1465,6 @@
        style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 2.9104163,283.24165 v 10.58333 H 16.139584 v -10.58333 z"
        id="path915-2"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#ffffff;stroke:#e3a370;stroke-width:2.38125;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1;fill-opacity:1"
-       d="m 0.79643164,287.77354 v -8.49796 H 17.792336 v 16.9959 H 0.79643164 Z"
-       id="path4524"
        inkscape:connector-curvature="0" /&gt;
     &lt;path
        inkscape:connector-curvature="0"
@@ -1008,7 +1508,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,8 +1521,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1030,27 +1550,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1066,8 +1566,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,10 +1610,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,17 +1633,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,36 +1657,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,13 +1672,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,169 +1846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,8 +1869,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,13 +1884,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1410,204 +1953,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
@@ -1934,7 +2437,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="5"/>
@@ -1978,7 +2481,7 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1998,8 +2501,8 @@
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
@@ -2010,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>333</v>
@@ -2018,8 +2521,8 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2030,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <v>444</v>
@@ -2038,8 +2541,8 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:6">
@@ -2050,16 +2553,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
@@ -2070,16 +2573,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>556</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
@@ -2090,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>557</v>
@@ -2098,8 +2601,8 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
@@ -2110,16 +2613,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
@@ -2130,16 +2633,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>559</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:6">
@@ -2150,16 +2653,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>560</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
@@ -2170,16 +2673,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>561</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:6">
@@ -2190,16 +2693,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1">
         <v>562</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:6">
@@ -2210,16 +2713,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1">
         <v>563</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1"/>

--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -2437,7 +2437,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="5"/>

--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19296" windowHeight="8079" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="8940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="签到.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -67,35 +67,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="16.000001"
-     inkscape:cx="50.978551"
-     inkscape:cy="24.559194"
+     inkscape:zoom="3.9999998"
+     inkscape:cx="2.5011241"
+     inkscape:cy="18.177698"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="true"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="true"
      inkscape:object-paths="true"
      inkscape:snap-intersection-paths="true"
      inkscape:snap-smooth-nodes="true"
      inkscape:snap-midpoints="true"
-     inkscape:snap-object-midpoints="false"&gt;
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid90" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -113,64 +111,50 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458332"
+       ry="0.79375339" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke-width:0.88654387"
+       d="m 9.7859643,281.91872 a 4.4029436,4.4626961 0 0 0 -4.402832,4.46298 4.4029436,4.4626961 0 0 0 0.4454509,1.9484 h -0.00775 l 0.033073,0.0565 a 4.4029436,4.4626961 0 0 0 0.2806031,0.48257 l 3.655074,6.27874 3.7852987,-6.50298 a 4.4029436,4.4626961 0 0 0 0.08733,-0.1502 l 0.09612,-0.16458 h -0.01757 a 4.4029436,4.4626961 0 0 0 0.448034,-1.9484 4.4029436,4.4626961 0 0 0 -4.4028327,-4.46298 z"
+       id="path4494-6"
+       inkscape:connector-curvature="0" /&gt;
     &lt;g
-       id="g897"
-       transform="translate(-10.318751,-8.73125)"
-       style="fill:#cccccc"&gt;
+       id="g4586"
+       transform="translate(-3.3333335e-8,-0.26458667)"&gt;
       &lt;path
-         sodipodi:nodetypes="cccccccc"
          inkscape:connector-curvature="0"
-         id="path837-5"
-         d="m 13.229167,294.35415 v 7.9375 l 1.322916,1.32292 h 10.583334 l 1.322917,-1.32292 c 0,-10.58333 0,-10.58333 0,-10.58333 H 13.229167 Z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         sodipodi:nodetypes="ccccc"
-         inkscape:connector-curvature="0"
-         id="path839-6"
-         d="m 15.875,294.35415 v -3.96875 h 1.322917 v 3.96875 z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         sodipodi:nodetypes="ccccc"
-         inkscape:connector-curvature="0"
-         id="path841-2"
-         d="m 22.489584,294.35415 v -3.96875 h 1.322917 v 3.96875 z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         sodipodi:nodetypes="ccccc"
-         inkscape:connector-curvature="0"
-         id="path845-9"
-         d="m 14.552083,303.61457 v -10.58333 h 10.583334 v 10.58333 z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+         id="path4494"
+         d="m 9.2567977,281.65414 a 4.4029436,4.4626961 0 0 0 -4.402832,4.46298 4.4029436,4.4626961 0 0 0 0.4454509,1.9484 h -0.00775 l 0.033073,0.0565 a 4.4029436,4.4626961 0 0 0 0.2806031,0.48257 l 3.655074,6.27874 3.7852983,-6.50298 a 4.4029436,4.4626961 0 0 0 0.08733,-0.1502 l 0.09612,-0.16458 h -0.01757 a 4.4029436,4.4626961 0 0 0 0.448034,-1.9484 4.4029436,4.4626961 0 0 0 -4.4028317,-4.46298 z"
+         style="fill:#ffffff;fill-opacity:1;stroke-width:0.88654387" /&gt;
+      &lt;ellipse
+         ry="3.3072953"
+         rx="3.3072917"
+         cy="286.01978"
+         cx="9.260417"
+         id="path4518"
+         style="fill:#c9d6e0;fill-opacity:1;stroke:none;stroke-width:0.93544388" /&gt;
     &lt;/g&gt;
     &lt;path
-       style="fill:#b3b3b3;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,285.09373 v 7.9375 L 3.96875,294.35415 H 14.552083 L 15.875,293.03123 c 0,-10.58333 0,-10.58333 0,-10.58333 H 2.6458333 Z"
-       id="path837"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="cccccccc" /&gt;
-    &lt;path
-       style="fill:#808080;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 5.2916666,285.09373 1e-7,-3.96875 h 1.3229166 l -10e-8,3.96875 z"
-       id="path839"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
-    &lt;path
-       style="fill:#808080;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 11.90625,285.09373 v -3.96875 h 1.322917 v 3.96875 z"
-       id="path841"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
-    &lt;path
-       style="fill:#e6e6e6;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 3.96875,294.35415 v -10.58333 h 10.583333 v 10.58333 z"
-       id="path845"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
-    &lt;path
-       style="fill:#008080;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 14.552083,282.4479 -5.2916664,5.29167 v 1.32291 H 10.583333 L 15.875,283.77082 Z"
-       id="path843"
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.10016964px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 6.890191,286.41666 0.9480898,-1.05833 1.4221359,1.5875 2.3702263,-2.64583 0.948091,1.05833 -3.3183173,3.175 z"
+       id="path4582-5"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.93544382"
+       d="m 9.2686848,282.44791 a 3.3072916,3.3072953 0 0 0 -3.3072916,3.30729 3.3072916,3.3072953 0 0 0 1.0123413,2.3766 3.3072916,3.3072956 0 0 1 -0.4831747,-1.71514 3.3072916,3.3072956 0 0 1 3.307292,-3.30729 3.3072916,3.3072956 0 0 1 2.2949502,0.93069 3.3072916,3.3072953 0 0 0 -2.8241172,-1.59215 z"
+       id="path4518-6"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;path
+       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.10016964px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 6.3830727,285.90402 0.9480898,-1.05833 1.4221357,1.5875 2.3702258,-2.64583 0.948091,1.05833 -3.3183168,3.175 z"
+       id="path4582"
        inkscape:connector-curvature="0" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
@@ -191,10 +175,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="经验.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -205,31 +189,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="8.0000004"
-     inkscape:cx="24.500141"
-     inkscape:cy="41.106197"
+     inkscape:zoom="5.6568542"
+     inkscape:cx="20.554043"
+     inkscape:cy="17.786568"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="false"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
-     inkscape:object-paths="true"&gt;
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -247,43 +233,49 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
     &lt;path
        sodipodi:type="star"
-       style="opacity:1;fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       id="path820-3"
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332"
+       id="path4617-6"
        sodipodi:sides="5"
-       sodipodi:cx="9.2914486"
-       sodipodi:cy="288.26797"
-       sodipodi:r1="6.614583"
-       sodipodi:r2="3.3072915"
-       sodipodi:arg1="0.92729522"
-       sodipodi:arg2="1.5556137"
+       sodipodi:cx="9.260417"
+       sodipodi:cy="288.40103"
+       sodipodi:r1="3.96875"
+       sodipodi:r2="1.984375"
+       sodipodi:arg1="-1.5707963"
+       sodipodi:arg2="-0.9424778"
        inkscape:flatsided="false"
        inkscape:rounded="0"
        inkscape:randomized="0"
-       d="m 13.260198,293.55964 -3.918538,-1.98475 -3.8564741,2.10281 0.6767203,-4.34008 -3.1916071,-3.01792 4.3367745,-0.69756 1.8839524,-3.96799 2.003554,3.90896 4.355954,0.56557 -3.098511,3.11343 z"
-       inkscape:transform-center-x="0.032633329"
-       inkscape:transform-center-y="-0.66242747"
-       transform="matrix(1.0515835,0,0,1.1002721,-0.21310117,-28.242058)" /&gt;
+       d="m 9.2604171,284.43228 1.1663859,2.36336 2.60812,0.37898 -1.887253,1.83962 0.44552,2.59758 -2.332773,-1.22641 -2.3327728,1.22641 0.44552,-2.59758 -1.8872527,-1.83962 2.6081191,-0.37898 z"
+       inkscape:transform-center-y="-0.62409615"
+       transform="matrix(1.6823395,0,0,1.6468217,-5.7453475,-186.40768)" /&gt;
     &lt;path
        sodipodi:type="star"
-       style="opacity:1;fill:#ff9955;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       id="path820"
+       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.26458332"
+       id="path4617"
        sodipodi:sides="5"
-       sodipodi:cx="9.2914486"
-       sodipodi:cy="288.26797"
-       sodipodi:r1="6.614583"
-       sodipodi:r2="3.3072915"
-       sodipodi:arg1="0.92729522"
-       sodipodi:arg2="1.5556137"
+       sodipodi:cx="9.260417"
+       sodipodi:cy="288.40103"
+       sodipodi:r1="3.96875"
+       sodipodi:r2="1.984375"
+       sodipodi:arg1="-1.5707963"
+       sodipodi:arg2="-0.9424778"
        inkscape:flatsided="false"
        inkscape:rounded="0"
        inkscape:randomized="0"
-       d="m 13.260198,293.55964 -3.918538,-1.98475 -3.8564741,2.10281 0.6767203,-4.34008 -3.1916071,-3.01792 4.3367745,-0.69756 1.8839524,-3.96799 2.003554,3.90896 4.355954,0.56557 -3.098511,3.11343 z"
-       inkscape:transform-center-x="0.032633329"
-       inkscape:transform-center-y="-0.66242747"
-       transform="matrix(1.0515835,0,0,1.1002721,-0.47768423,-28.771223)" /&gt;
+       d="m 9.2604171,284.43228 1.1663859,2.36336 2.60812,0.37898 -1.887253,1.83962 0.44552,2.59758 -2.332773,-1.22641 -2.3327728,1.22641 0.44552,-2.59758 -1.8872527,-1.83962 2.6081191,-0.37898 z"
+       inkscape:transform-center-y="-0.62409615"
+       transform="matrix(1.6823395,0,0,1.6468217,-6.3187488,-187.01968)" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -303,10 +295,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="签到天数.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -317,34 +309,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="16.000001"
-     inkscape:cx="44.253959"
-     inkscape:cy="21.472525"
+     inkscape:zoom="22.630137"
+     inkscape:cx="37.632607"
+     inkscape:cy="49.520634"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="true"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="true"
      inkscape:object-paths="true"
      inkscape:snap-intersection-paths="true"
      inkscape:snap-smooth-nodes="true"
-     inkscape:snap-midpoints="true"&gt;
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -362,19 +353,71 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 4.2333316,285.6229 c 0,0 -2.8e-6,-2.64583 2.6458333,-2.64583 h 5.2916681 c 0,0 2.645835,-1e-5 2.645834,2.64583 v 5.29167 c 0,0 0,2.64583 -2.645834,2.64583 H 6.8791649 c 0,0 -2.6458333,0 -2.6458333,-2.64583 z"
-       id="path838-3"
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;path
        inkscape:connector-curvature="0"
-       sodipodi:nodetypes="cscscscsc" /&gt;
-    &lt;path
-       style="fill:#aade87;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 3.96875,285.09373 c 0,0 -2.8e-6,-2.64583 2.6458333,-2.64583 H 11.90625 c 0,0 2.645834,-1e-5 2.645833,2.64583 l 0,5.29167 c 0,0 0,2.64583 -2.645833,2.64583 H 6.6145833 c 0,0 -2.6458333,0 -2.6458333,-2.64583 z"
-       id="path838"
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 6.6145834,280.86041 c -0.5291667,0 -0.5291667,0.52917 -0.5291667,0.52917 v 0.26458 4.23333 c 0,0 0,0.52917 0.5291667,0.52917 0.5291666,0 0.5291666,-0.52917 0.5291666,-0.52917 v -4.23333 -0.26458 c 0,0 0,-0.52917 -0.5291666,-0.52917 z"
+       id="path4643-7" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.24536441px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 4.497916,283.50625 c -1.3229167,0 -1.3229167,1.1377 -1.3229167,1.1377 v 9.10167 c 0,1.13771 1.3229167,1.13771 1.3229167,1.13771 H 15.08125 c 1.322917,0 1.322917,-1.13771 1.322917,-1.13771 v -9.10167 c 0,-1.1377 -1.322917,-1.1377 -1.322917,-1.1377 h -1.322916 v 2.27542 c 0,0 0,0.68261 -0.79375,0.68261 -0.79375,0 -0.79375,-0.68261 -0.79375,-0.68261 v -2.27542 H 7.4083326 v 2.27542 c 0,0 0,0.68261 -0.79375,0.68261 -0.79375,0 -0.79375,-0.68261 -0.79375,-0.68261 v -2.27542 z"
+       id="path4603-2"
        inkscape:connector-curvature="0"
-       sodipodi:nodetypes="cscscscsc" /&gt;
+       sodipodi:nodetypes="scscscscccsccccsccs" /&gt;
+    &lt;path
+       inkscape:connector-curvature="0"
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 12.964583,280.86041 c -0.529166,0 -0.529166,0.52917 -0.529166,0.52917 v 0.26458 4.23333 c 0,0 0,0.52917 0.529166,0.52917 0.529167,0 0.529167,-0.52917 0.529167,-0.52917 v -4.23333 -0.26458 c 0,0 0,-0.52917 -0.529167,-0.52917 z"
+       id="path4643-7-0" /&gt;
+    &lt;path
+       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.24536446px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.96875,282.97708 c -1.3229167,0 -1.3229167,1.13771 -1.3229167,1.13771 v 9.10166 c 0,1.13771 1.3229167,1.13771 1.3229167,1.13771 h 10.583333 c 1.322917,0 1.322917,-1.13771 1.322917,-1.13771 v -9.10166 c 0,-1.13771 -1.322917,-1.13771 -1.322917,-1.13771 h -1.322916 v 2.27542 c 0,0 0,0.68262 -0.79375,0.68262 -0.79375,0 -0.79375,-0.68262 -0.79375,-0.68262 v -2.27542 H 6.8791666 v 2.27542 c 0,0 0,0.68262 -0.79375,0.68262 -0.79375,0 -0.79375,-0.68262 -0.79375,-0.68262 v -2.27542 z"
+       id="path4603"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="scscscscccsccccsccs" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.24052997;stroke-opacity:1"
+       id="path4492"
+       sodipodi:type="arc"
+       sodipodi:cx="6.0854168"
+       sodipodi:cy="285.35834"
+       sodipodi:rx="1.3229165"
+       sodipodi:ry="1.3229133"
+       sodipodi:start="0"
+       sodipodi:end="6.2595361"
+       sodipodi:open="true"
+       d="m 7.4083333,285.35834 a 1.3229165,1.3229133 0 0 1 -1.3150951,1.32289 1.3229165,1.3229133 0 0 1 -1.3306454,-1.30725 1.3229165,1.3229133 0 0 1 1.2993608,-1.33835 1.3229165,1.3229133 0 0 1 1.3460098,1.29142" /&gt;
+    &lt;path
+       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 23 7 C 21 7 21 9 21 9 L 21 10 L 21 26 C 21 26 21 28 23 28 C 25 28 25 26 25 26 L 25 10 L 25 9 C 25 9 25 7 23 7 z "
+       transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+       id="path4643" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.24052998;stroke-opacity:1"
+       id="path4492-3"
+       sodipodi:type="arc"
+       sodipodi:cx="12.435416"
+       sodipodi:cy="285.35834"
+       sodipodi:rx="1.3229165"
+       sodipodi:ry="1.3229133"
+       sodipodi:start="0"
+       sodipodi:end="6.2595361"
+       sodipodi:open="true"
+       d="m 13.758333,285.35834 a 1.3229165,1.3229133 0 0 1 -1.315095,1.32289 1.3229165,1.3229133 0 0 1 -1.330646,-1.30725 1.3229165,1.3229133 0 0 1 1.299361,-1.33835 1.3229165,1.3229133 0 0 1 1.34601,1.29142" /&gt;
+    &lt;path
+       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 47 7 C 44.999999 7 45 9 45 9 L 45 10 L 45 26 C 45 26 45.000003 28 47 28 C 49.000001 28 49 26 49 26 L 49 10 L 49 9 C 49 9 48.999997 7 47 7 z "
+       transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+       id="path4643-1" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -1491,9 +1534,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1508,28 +1551,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1541,25 +1588,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,6 +1610,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1581,16 +1631,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,30 +1677,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,21 +1691,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1684,6 +1727,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1696,163 +1745,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,8 +1912,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1880,6 +1923,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1895,6 +1953,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,187 +2001,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,7 +2224,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="414C51"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2437,12 +2480,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.85" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1025" width="10.9586776859504" customWidth="1"/>
+    <col min="1" max="1025" width="10.9583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">

--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -68,8 +68,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="3.9999998"
-     inkscape:cx="2.5011241"
-     inkscape:cy="18.177698"
+     inkscape:cx="-9.2488761"
+     inkscape:cy="30.927699"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -125,22 +125,18 @@
        d="m 9.7859643,281.91872 a 4.4029436,4.4626961 0 0 0 -4.402832,4.46298 4.4029436,4.4626961 0 0 0 0.4454509,1.9484 h -0.00775 l 0.033073,0.0565 a 4.4029436,4.4626961 0 0 0 0.2806031,0.48257 l 3.655074,6.27874 3.7852987,-6.50298 a 4.4029436,4.4626961 0 0 0 0.08733,-0.1502 l 0.09612,-0.16458 h -0.01757 a 4.4029436,4.4626961 0 0 0 0.448034,-1.9484 4.4029436,4.4626961 0 0 0 -4.4028327,-4.46298 z"
        id="path4494-6"
        inkscape:connector-curvature="0" /&gt;
-    &lt;g
-       id="g4586"
-       transform="translate(-3.3333335e-8,-0.26458667)"&gt;
-      &lt;path
-         inkscape:connector-curvature="0"
-         id="path4494"
-         d="m 9.2567977,281.65414 a 4.4029436,4.4626961 0 0 0 -4.402832,4.46298 4.4029436,4.4626961 0 0 0 0.4454509,1.9484 h -0.00775 l 0.033073,0.0565 a 4.4029436,4.4626961 0 0 0 0.2806031,0.48257 l 3.655074,6.27874 3.7852983,-6.50298 a 4.4029436,4.4626961 0 0 0 0.08733,-0.1502 l 0.09612,-0.16458 h -0.01757 a 4.4029436,4.4626961 0 0 0 0.448034,-1.9484 4.4029436,4.4626961 0 0 0 -4.4028317,-4.46298 z"
-         style="fill:#ffffff;fill-opacity:1;stroke-width:0.88654387" /&gt;
-      &lt;ellipse
-         ry="3.3072953"
-         rx="3.3072917"
-         cy="286.01978"
-         cx="9.260417"
-         id="path4518"
-         style="fill:#c9d6e0;fill-opacity:1;stroke:none;stroke-width:0.93544388" /&gt;
-    &lt;/g&gt;
+    &lt;path
+       style="fill:#f9f9f9;fill-opacity:1;stroke-width:0.88654387"
+       d="m 9.2567977,281.38955 a 4.4029436,4.4626961 0 0 0 -4.402832,4.46298 4.4029436,4.4626961 0 0 0 0.4454509,1.9484 h -0.00775 l 0.033073,0.0565 A 4.4029436,4.4626961 0 0 0 5.6053427,288.34 l 3.655074,6.27874 3.7852983,-6.50298 a 4.4029436,4.4626961 0 0 0 0.08733,-0.1502 l 0.09612,-0.16458 h -0.01757 a 4.4029436,4.4626961 0 0 0 0.448034,-1.9484 4.4029436,4.4626961 0 0 0 -4.4028317,-4.46298 z"
+       id="path4494"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;ellipse
+       style="fill:#c9d6e0;fill-opacity:1;stroke:none;stroke-width:0.93544388"
+       id="path4518"
+       cx="9.260417"
+       cy="285.75519"
+       rx="3.3072917"
+       ry="3.3072953" /&gt;
     &lt;path
        style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.10016964px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 6.890191,286.41666 0.9480898,-1.05833 1.4221359,1.5875 2.3702263,-2.64583 0.948091,1.05833 -3.3183173,3.175 z"
@@ -152,7 +148,7 @@
        id="path4518-6"
        inkscape:connector-curvature="0" /&gt;
     &lt;path
-       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.10016964px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.10016964px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 6.3830727,285.90402 0.9480898,-1.05833 1.4221357,1.5875 2.3702258,-2.64583 0.948091,1.05833 -3.3183168,3.175 z"
        id="path4582"
        inkscape:connector-curvature="0" /&gt;
@@ -190,8 +186,8 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="5.6568542"
-     inkscape:cx="20.554043"
-     inkscape:cy="17.786568"
+     inkscape:cx="3.5834798"
+     inkscape:cy="28.9235"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -261,7 +257,7 @@
        transform="matrix(1.6823395,0,0,1.6468217,-5.7453475,-186.40768)" /&gt;
     &lt;path
        sodipodi:type="star"
-       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.26458332"
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.26458332"
        id="path4617"
        sodipodi:sides="5"
        sodipodi:cx="9.260417"
@@ -309,9 +305,9 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="22.630137"
-     inkscape:cx="37.632607"
-     inkscape:cy="49.520634"
+     inkscape:zoom="5.6575343"
+     inkscape:cx="5.2712576"
+     inkscape:cy="32.727648"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
@@ -379,7 +375,7 @@
        d="m 12.964583,280.86041 c -0.529166,0 -0.529166,0.52917 -0.529166,0.52917 v 0.26458 4.23333 c 0,0 0,0.52917 0.529166,0.52917 0.529167,0 0.529167,-0.52917 0.529167,-0.52917 v -4.23333 -0.26458 c 0,0 0,-0.52917 -0.529167,-0.52917 z"
        id="path4643-7-0" /&gt;
     &lt;path
-       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.24536446px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.24536446px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="m 3.96875,282.97708 c -1.3229167,0 -1.3229167,1.13771 -1.3229167,1.13771 v 9.10166 c 0,1.13771 1.3229167,1.13771 1.3229167,1.13771 h 10.583333 c 1.322917,0 1.322917,-1.13771 1.322917,-1.13771 v -9.10166 c 0,-1.13771 -1.322917,-1.13771 -1.322917,-1.13771 h -1.322916 v 2.27542 c 0,0 0,0.68262 -0.79375,0.68262 -0.79375,0 -0.79375,-0.68262 -0.79375,-0.68262 v -2.27542 H 6.8791666 v 2.27542 c 0,0 0,0.68262 -0.79375,0.68262 -0.79375,0 -0.79375,-0.68262 -0.79375,-0.68262 v -2.27542 z"
        id="path4603"
        inkscape:connector-curvature="0"
@@ -397,7 +393,7 @@
        sodipodi:open="true"
        d="m 7.4083333,285.35834 a 1.3229165,1.3229133 0 0 1 -1.3150951,1.32289 1.3229165,1.3229133 0 0 1 -1.3306454,-1.30725 1.3229165,1.3229133 0 0 1 1.2993608,-1.33835 1.3229165,1.3229133 0 0 1 1.3460098,1.29142" /&gt;
     &lt;path
-       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="M 23 7 C 21 7 21 9 21 9 L 21 10 L 21 26 C 21 26 21 28 23 28 C 25 28 25 26 25 26 L 25 10 L 25 9 C 25 9 25 7 23 7 z "
        transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
        id="path4643" /&gt;
@@ -414,7 +410,7 @@
        sodipodi:open="true"
        d="m 13.758333,285.35834 a 1.3229165,1.3229133 0 0 1 -1.315095,1.32289 1.3229165,1.3229133 0 0 1 -1.330646,-1.30725 1.3229165,1.3229133 0 0 1 1.299361,-1.33835 1.3229165,1.3229133 0 0 1 1.34601,1.29142" /&gt;
     &lt;path
-       style="fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
        d="M 47 7 C 44.999999 7 45 9 45 9 L 45 10 L 45 26 C 45 26 45.000003 28 47 28 C 49.000001 28 49 26 49 26 L 49 10 L 49 9 C 49 9 48.999997 7 47 7 z "
        transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
        id="path4643-1" /&gt;
@@ -437,10 +433,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="帐户年龄.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -451,34 +447,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="11.313709"
-     inkscape:cx="41.22735"
-     inkscape:cy="25.905066"
+     inkscape:zoom="8.0019235"
+     inkscape:cx="50.007484"
+     inkscape:cy="24.21755"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="true"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="true"
      inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
      inkscape:snap-smooth-nodes="true"
      inkscape:snap-midpoints="true"
-     inkscape:snap-intersection-paths="true"&gt;
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -488,7 +483,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title&gt;&lt;/dc:title&gt;
+        &lt;dc:title /&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -496,55 +491,34 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;g
-       id="g886"
-       style="fill:#cccccc"
-       transform="translate(-2.3812507,0.52916667)"&gt;
-      &lt;path
-         sodipodi:nodetypes="cccccccc"
-         inkscape:connector-curvature="0"
-         id="path837-3"
-         d="m 5.2916666,283.77082 v 9.26041 l 1.3229167,1.32292 H 17.197917 l 1.322917,-1.32292 V 282.4479 H 5.2916666 Z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         sodipodi:nodetypes="ccccc"
-         inkscape:connector-curvature="0"
-         id="path845-6"
-         d="M 6.6145833,294.35415 V 283.77082 H 17.197917 v 10.58333 z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         inkscape:connector-curvature="0"
-         id="path841-7"
-         d="m 14.552084,285.09373 v -3.96875 h 1.322917 v 3.96875 z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.32404742px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         inkscape:connector-curvature="0"
-         id="path839-5"
-         d="m 7.9374999,285.09373 v -3.96875 h 1.3229167 v 3.96875 z"
-         style="fill:#cccccc;stroke:none;stroke-width:0.32404715px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-    &lt;/g&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,283.77082 v 9.26041 L 3.96875,294.35415 H 14.552083 L 15.875,293.03123 V 282.4479 H 2.6458333 Z"
-       id="path837"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="cccccccc" /&gt;
-    &lt;path
-       style="fill:#eed7f4;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 3.96875,294.35415 v -10.58333 h 10.583333 v 10.58333 z"
-       id="path845"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
-    &lt;path
-       style="fill:#ab37c8;stroke:none;stroke-width:0.32404742px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 11.90625,285.09373 v -3.96875 h 1.322917 v 3.96875 z"
-       id="path841"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#bc5fd3;stroke:none;stroke-width:0.32404715px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 5.2916667,285.09373 v -3.96875 h 1.3229166 v 3.96875 z"
-       id="path839"
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.92581987px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 36.826172 14.359375 C 31.465021 14.454619 27.186869 18.861018 27.25 24.222656 C 27.290301 27.225226 28.711867 30.041699 31.103516 31.857422 L 27 31.857422 C 17.000001 31.857422 17 40.429688 17 40.429688 L 17 40.857422 L 17 57.857422 L 17 61 C 17 61.857424 18 61.857422 18 61.857422 L 56 61.857422 C 56.999999 61.857422 57 61 57 61 L 57 57.857422 L 57 40.857422 L 57 40.429688 C 56.999989 31.85821 47 31.857422 47 31.857422 L 42.902344 31.857422 C 45.323706 30.015809 46.746727 27.149564 46.75 24.107422 L 46.748047 23.876953 C 46.621055 18.515655 42.18812 14.263337 36.826172 14.359375 z "
+       transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+       id="path4637-3" /&gt;
+    &lt;path
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.92581987px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 34.826172 12.501953 C 29.46502 12.597178 25.186869 17.003595 25.25 22.365234 C 25.290296 25.367779 26.711869 28.184265 29.103516 30 L 25 30 C 15.000001 30 15 38.572266 15 38.572266 L 15 39 L 15 56 L 15 59.142578 C 15 60.000001 16 60 16 60 L 54 60 C 54.999999 60 55 59.142578 55 59.142578 L 55 56 L 55 39 L 55 38.572266 C 54.999986 30.000788 45 30 45 30 L 40.902344 30 C 43.323709 28.158391 44.746727 25.292129 44.75 22.25 L 44.748047 22.019531 C 44.621055 16.658213 40.188121 12.405912 34.826172 12.501953 z "
+       transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+       id="path4637" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 0.5291683,292.63437 H 19.05 v 1.32291 H 0.5291683 Z"
+       id="path4486"
+       inkscape:connector-curvature="0" /&gt;
+    &lt;path
+       style="fill:#f9f9f9;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
+       d="m 0,288.79791 v 4.49792 h 18.520833 v -4.49792 z"
+       id="path4488"
        inkscape:connector-curvature="0" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
@@ -565,10 +539,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="活跃分析.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -579,21 +553,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="11.313709"
-     inkscape:cx="43.253797"
-     inkscape:cy="34.131519"
+     inkscape:zoom="4.0009618"
+     inkscape:cx="68.003581"
+     inkscape:cy="31.094452"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
-     inkscape:window-maximized="1"&gt;
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:bbox-paths="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -603,7 +589,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title&gt;&lt;/dc:title&gt;
+        &lt;dc:title /&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -611,19 +597,27 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#e6e6e6;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="M 1.8520811,288.26873 H 5.820831 l 2.6458333,-5.29167 2.6458337,10.58333 2.645836,-5.29166 3.439583,0 v 0 0 l -3.439583,0 -2.645836,5.29166 -2.6458337,-10.58333 -2.6458333,5.29167 z"
-       id="path4522-6"
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 3.1750002,289.0625 11.1125,281.65416 8.4666667,285.62291 16.404167,287.475 8.4666667,294.88333 11.1125,290.91458 Z"
+       id="path4631-3"
        inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccccccccc" /&gt;
-    &lt;path
-       style="fill:#00a996;fill-opacity:1;stroke:#00d4c6;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 1.3229167,287.73957 h 3.9687499 l 2.6458333,-5.29167 2.6458331,10.58333 2.645834,-5.29166 3.96875,0 v 0 H 15.875 l -2.645833,0 -2.645834,5.29166 -2.6458331,-10.58333 -2.6458333,5.29167 z"
-       id="path4522"
+       sodipodi:nodetypes="ccccccc" /&gt;
+    &lt;path
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 2.6458333,288.53333 7.9374997,-7.40834 -2.645833,3.96875 7.9375,1.85209 -7.9375,7.40833 2.645833,-3.96875 z"
+       id="path4631"
        inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccccccccc" /&gt;
+       sodipodi:nodetypes="ccccccc" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -1533,10 +1527,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1551,6 +1545,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1558,7 +1566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1572,19 +1580,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1603,24 +1608,27 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1646,24 +1654,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,31 +1669,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1715,49 +1709,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1811,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,19 +1871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,97 +1883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1906,6 +1900,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1942,6 +1960,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1967,180 +2000,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2480,7 +2474,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -637,10 +637,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="经验分析.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -651,21 +651,129 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="4"
-     inkscape:cx="-24.956281"
-     inkscape:cy="24.181048"
+     inkscape:zoom="2"
+     inkscape:cx="110.98506"
+     inkscape:cy="-18.81894"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
-     inkscape:window-maximized="1"&gt;
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:bbox-paths="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
+  &lt;/sodipodi:namedview&gt;
+  &lt;metadata
+     id="metadata5"&gt;
+    &lt;rdf:RDF&gt;
+      &lt;cc:Work
+         rdf:about=""&gt;
+        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
+        &lt;dc:type
+           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
+        &lt;dc:title /&gt;
+      &lt;/cc:Work&gt;
+    &lt;/rdf:RDF&gt;
+  &lt;/metadata&gt;
+  &lt;g
+     inkscape:label="Layer 1"
+     inkscape:groupmode="layer"
+     id="layer1"
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;path
+       inkscape:connector-curvature="0"
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.1749995,282.97708 v 11.90625 H 16.404167 v -1.32292 H 5.441011 l 3.0024007,-3.84007 1.6769013,2.51716 5.190897,-6.75463 0.548804,0.42581 0.576709,-2.90163 -2.667021,1.27951 0.529167,0.41083 -4.244702,5.42344 -1.5875008,-2.38125 -3.96875,4.96094 v -9.72344 z"
+       id="path4505-9" /&gt;
+    &lt;path
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 10 15 L 10 60 L 60 60 L 60 55 L 18.564453 55 L 29.912109 40.486328 L 36.25 50 L 55.869141 24.470703 L 57.943359 26.080078 L 60.123047 15.113281 L 50.042969 19.949219 L 52.042969 21.501953 L 36 42 L 30 33 L 15 51.75 L 15 15 L 10 15 z "
+       transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+       id="path4505" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>论坛排行</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
+&lt;svg
+   xmlns:dc="http://purl.org/dc/elements/1.1/"
+   xmlns:cc="http://creativecommons.org/ns#"
+   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
+   xmlns:svg="http://www.w3.org/2000/svg"
+   xmlns="http://www.w3.org/2000/svg"
+   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
+   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
+   width="70"
+   height="70"
+   viewBox="0 0 18.520834 18.520834"
+   version="1.1"
+   id="svg8"
+   inkscape:version="0.92.1 r15371"
+   sodipodi:docname="论坛排行.svg"&gt;
+  &lt;defs
+     id="defs2" /&gt;
+  &lt;sodipodi:namedview
+     id="base"
+     pagecolor="#ffffff"
+     bordercolor="#666666"
+     borderopacity="1.0"
+     inkscape:pageopacity="0.0"
+     inkscape:pageshadow="2"
+     inkscape:zoom="2"
+     inkscape:cx="50.343624"
+     inkscape:cy="26.117292"
+     inkscape:document-units="mm"
+     inkscape:current-layer="layer1"
+     showgrid="true"
+     units="px"
+     inkscape:window-width="1280"
+     inkscape:window-height="745"
+     inkscape:window-x="0"
+     inkscape:window-y="27"
+     inkscape:window-maximized="1"
+     inkscape:snap-global="true"
+     inkscape:snap-bbox="true"
+     inkscape:bbox-paths="true"
+     inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
+     inkscape:snap-bbox-midpoints="true"
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
+    &lt;inkscape:grid
+       type="xygrid"
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -683,76 +791,58 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="opacity:1;fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:0.75302655;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
-       id="path5125-3"
-       sodipodi:type="arc"
-       sodipodi:cx="9.5155458"
-       sodipodi:cy="284.6882"
-       sodipodi:rx="2.4613752"
-       sodipodi:ry="2.4006782"
-       sodipodi:start="0"
-       sodipodi:end="6.2806546"
-       sodipodi:open="true"
-       d="m 11.976921,284.6882 a 2.4613752,2.4006782 0 0 1 -2.4598179,2.40068 2.4613752,2.4006782 0 0 1 -2.4629305,-2.39764 2.4613752,2.4006782 0 0 1 2.4567015,-2.40371 2.4613752,2.4006782 0 0 1 2.4660389,2.3946" /&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
-       d="m 9.5249993,286.94582 v 3.37343 z"
-       id="path5129-6"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="opacity:1;fill:#4469bb;fill-opacity:1;stroke:#4469bb;stroke-width:0.75302655;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       id="path5125"
-       sodipodi:type="arc"
-       sodipodi:cx="9.2509594"
-       sodipodi:cy="283.98358"
-       sodipodi:rx="2.4613752"
-       sodipodi:ry="2.4006782"
-       sodipodi:start="0"
-       sodipodi:end="6.2806546"
-       sodipodi:open="true"
-       d="m 11.712335,283.98358 a 2.4613752,2.4006782 0 0 1 -2.4598183,2.40068 2.4613752,2.4006782 0 0 1 -2.4629306,-2.39764 2.4613752,2.4006782 0 0 1 2.4567015,-2.40371 2.4613752,2.4006782 0 0 1 2.4660394,2.3946" /&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:round;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
-       d="M 9.5249993,289.72394 4.7624999,287.47499 Z"
-       id="path5131-7"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:none;stroke:#4469bb;stroke-width:1.85208333;stroke-linecap:butt;stroke-linejoin:miter;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 9.2604167,286.24125 v 3.37343 z"
-       id="path5129"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:round;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
-       d="m 9.5249993,289.72394 4.7624997,-2.24895 z"
-       id="path5133-5"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:none;stroke:#4469bb;stroke-width:1.85208333;stroke-linecap:round;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 9.2604167,289.01937 -4.7625,-2.24895 z"
-       id="path5131"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:#cccccc;stroke-width:1.85208333;stroke-linecap:round;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:0.94117647"
-       d="m 9.5249993,289.72394 -4.7624994,4.49791 4.7624994,-4.49791 4.7624997,4.49791 z"
-       id="path5135-3"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:none;stroke:#4469bb;stroke-width:1.85208333;stroke-linecap:round;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 9.2604167,289.01937 4.7625003,-2.24895 z"
-       id="path5133"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:none;stroke:#4469bb;stroke-width:1.85208333;stroke-linecap:round;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       d="m 9.2604167,289.01937 -4.7625,4.49791 4.7625,-4.49791 4.7625003,4.49791 z"
-       id="path5135"
-       inkscape:connector-curvature="0" /&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;g
+       transform="translate(0.529167,0.52917)"
+       id="g4656-3"
+       style="fill:#b3b3b3"&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path4628-6"
+         d="m 3.175,293.82499 v -6.08541 h 3.200537 v 6.08541 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.22789812px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path4630-0"
+         d="m 7.6729164,287.18471 v -5.31223 h 3.1750006 v 11.95251 H 7.6729164 Z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.23710974px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path4632-6"
+         d="m 15.345833,293.82499 v -8.73125 h -3.200648 v 8.73125 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.23071574px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;g
+       id="g4656"&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path4628"
+         d="m 3.175,293.82499 v -6.08541 h 3.200537 v 6.08541 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.22789812px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path4630"
+         d="m 7.6729164,287.18471 v -5.31223 h 3.1750006 v 11.95251 H 7.6729164 Z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.23710974px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         inkscape:connector-curvature="0"
+         id="path4632"
+         d="m 15.345833,293.82499 v -8.73125 h -3.200648 v 8.73125 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.23071574px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
   <si>
-    <t>论坛排行</t>
+    <t>反馈</t>
   </si>
   <si>
     <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
@@ -767,11 +857,11 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
-   sodipodi:docname="论坛排行.svg"&gt;
+   inkscape:version="0.92.1 r15371"
+   sodipodi:docname="反馈1.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
   &lt;sodipodi:namedview
@@ -782,31 +872,32 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="8.0000004"
-     inkscape:cx="39.601293"
-     inkscape:cy="25.004109"
+     inkscape:cx="3.3337381"
+     inkscape:cy="39.00973"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="false"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
      inkscape:object-paths="true"
-     showguides="false"&gt;
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -824,117 +915,29 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
     &lt;g
-       id="g854"
-       transform="translate(-6.35,-0.26458333)"
-       style="fill:#cccccc"&gt;
+       id="g4488"
+       transform="translate(0,-0.34797225)"&gt;
+      &lt;path
+         id="path4709-2"
+         d="m 9.9486493,283.42662 a 5.953125,4.5198823 0 0 0 -5.8471879,4.57285 5.953125,4.5198823 0 0 0 1.7110067,3.11699 l -1.1823568,2.76995 3.3062583,-1.72119 a 5.953125,4.5198823 0 0 0 2.1528394,0.30065 5.953125,4.5198823 0 0 0 5.917985,-4.51988 l -0.0016,-0.10694 a 5.953125,4.5198823 0 0 0 -6.0569837,-4.41243 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:1.38634717;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
+         inkscape:connector-curvature="0" /&gt;
       &lt;path
          inkscape:connector-curvature="0"
-         id="path840-36"
-         d="m 9.2604167,289.85623 h 3.9687503 v 5.29167 H 9.2604167 Z"
-         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.23665057px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         inkscape:connector-curvature="0"
-         id="path840-3-7"
-         d="m 13.890626,282.4479 h 3.968748 v 12.7 h -3.968748 z"
-         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.36661747px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-      &lt;path
-         inkscape:connector-curvature="0"
-         id="path840-6-5"
-         d="m 18.520833,287.2104 h 3.96875 v 7.9375 h -3.96875 z"
-         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.28983644px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+         id="path4709"
+         d="m 9.2871911,283.03921 a 5.9531249,4.5198823 0 0 0 -5.8471881,4.57284 5.9531249,4.5198823 0 0 0 1.7110067,3.11701 l -1.1823568,2.76993 3.3062582,-1.72118 a 5.9531249,4.5198823 0 0 0 2.1528399,0.30065 5.9531249,4.5198823 0 0 0 5.917985,-4.51988 l -0.0015,-0.10694 a 5.9531249,4.5198823 0 0 0 -6.0569949,-4.41243 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:1.38634729;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1" /&gt;
     &lt;/g&gt;
-    &lt;path
-       style="fill:#5f8dd3;fill-opacity:1;stroke:none;stroke-width:0.23665057px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,289.06248 h 3.9687499 v 5.29167 H 2.6458333 Z"
-       id="path840"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#5f8dd3;fill-opacity:1;stroke:none;stroke-width:0.36661747px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 7.2760422,281.65415 h 3.9687488 v 12.7 H 7.2760422 Z"
-       id="path840-3"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#5f8dd3;fill-opacity:1;stroke:none;stroke-width:0.28983644px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="M 11.90625,286.41665 H 15.875 v 7.9375 h -3.96875 z"
-       id="path840-6"
-       inkscape:connector-curvature="0" /&gt;
-  &lt;/g&gt;
-&lt;/svg&gt;</t>
-  </si>
-  <si>
-    <t>反馈</t>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
-&lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
-&lt;svg
-   xmlns:dc="http://purl.org/dc/elements/1.1/"
-   xmlns:cc="http://creativecommons.org/ns#"
-   xmlns:rdf="http://www.w3.org/1999/02/22-rdf-syntax-ns#"
-   xmlns:svg="http://www.w3.org/2000/svg"
-   xmlns="http://www.w3.org/2000/svg"
-   xmlns:sodipodi="http://sodipodi.sourceforge.net/DTD/sodipodi-0.dtd"
-   xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
-   width="70"
-   height="70"
-   viewBox="0 0 18.520833 18.520834"
-   version="1.1"
-   id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
-   sodipodi:docname="反馈.svg"&gt;
-  &lt;defs
-     id="defs2" /&gt;
-  &lt;sodipodi:namedview
-     id="base"
-     pagecolor="#ffffff"
-     bordercolor="#666666"
-     borderopacity="1.0"
-     inkscape:pageopacity="0.0"
-     inkscape:pageshadow="2"
-     inkscape:zoom="5.656854"
-     inkscape:cx="28.553619"
-     inkscape:cy="33.886904"
-     inkscape:document-units="mm"
-     inkscape:current-layer="layer1"
-     showgrid="true"
-     units="px"
-     inkscape:window-width="1280"
-     inkscape:window-height="715"
-     inkscape:window-x="0"
-     inkscape:window-y="27"
-     inkscape:window-maximized="1"&gt;
-    &lt;inkscape:grid
-       type="xygrid"
-       id="grid815" /&gt;
-  &lt;/sodipodi:namedview&gt;
-  &lt;metadata
-     id="metadata5"&gt;
-    &lt;rdf:RDF&gt;
-      &lt;cc:Work
-         rdf:about=""&gt;
-        &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
-        &lt;dc:type
-           rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title&gt;&lt;/dc:title&gt;
-      &lt;/cc:Work&gt;
-    &lt;/rdf:RDF&gt;
-  &lt;/metadata&gt;
-  &lt;g
-     inkscape:label="Layer 1"
-     inkscape:groupmode="layer"
-     id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       inkscape:connector-curvature="0"
-       id="path822-3"
-       style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.39666426px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 5.820834,289.59165 -1.707978,4.91938 5.6767274,-3.59646 z M 3.753777,287.5003 a 6.1562133,4.6010314 0 0 0 6.1561334,4.60103 6.1562133,4.6010314 0 0 0 6.1562916,-4.60091 6.1562133,4.6010314 0 0 0 -6.1559756,-4.60115 6.1562133,4.6010314 0 0 0 -6.1564494,4.60079" /&gt;
-    &lt;path
-       id="path822"
-       style="fill:#c76962;fill-opacity:1;stroke:none;stroke-width:0.39666426px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 5.2916667,289.06248 -1.7079787,4.91938 5.6767287,-3.59646 z m -2.0670578,-2.09135 a 6.1562133,4.6010313 0 0 0 6.1561343,4.60103 6.1562133,4.6010313 0 0 0 6.1562918,-4.60091 6.1562133,4.6010313 0 0 0 -6.1559759,-4.60115 6.1562133,4.6010313 0 0 0 -6.1564502,4.60079" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -1527,9 +1530,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1552,28 +1555,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1586,10 +1575,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1600,10 +1596,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1623,17 +1643,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,6 +1688,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1653,52 +1702,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1709,13 +1712,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,169 +1826,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,6 +1911,69 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,69 +1995,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2003,135 +2006,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2474,7 +2477,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8940" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11910" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -945,7 +945,7 @@
     <t>发布</t>
   </si>
   <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
 &lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
 &lt;svg
    xmlns:dc="http://purl.org/dc/elements/1.1/"
@@ -957,10 +957,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.3 (2405546, 2018-03-11)"
    sodipodi:docname="发布.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -972,30 +972,32 @@
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
      inkscape:zoom="4.0000002"
-     inkscape:cx="-4.4832477"
-     inkscape:cy="39.822641"
+     inkscape:cx="-43.403624"
+     inkscape:cy="24.405731"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
-     inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-width="1920"
+     inkscape:window-height="974"
      inkscape:window-x="0"
-     inkscape:window-y="27"
+     inkscape:window-y="0"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
-     inkscape:snap-bbox="false"
-     inkscape:object-nodes="false"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:snap-bbox="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
-     inkscape:object-paths="true"&gt;
+     inkscape:object-paths="true"
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -1005,7 +1007,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title&gt;&lt;/dc:title&gt;
+        &lt;dc:title /&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -1013,54 +1015,58 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 8.7312449,287.21035 2.1166651,2.11667 -1.0583327,4.23333 -6.6145794,1.32292 1.3229154,-6.61458 z"
-       id="path912-3"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 8.4666609,286.94577 4.1671871,-6.11849 5.126302,-0.39687 -0.363802,4.994 -6.283855,4.16719 z"
-       id="path910-5"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="cccccc" /&gt;
-    &lt;path
-       style="fill:#8b8988;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="m 8.2020832,286.68123 2.1166668,2.11667 -1.0583334,4.23333 -6.6145833,1.32292 1.3229167,-6.61458 z"
-       id="path912"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#ffffff;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="m 2.6458333,294.08957 3.7041666,-3.70417 0.2645833,0.26458 -3.7041666,3.70417 H 2.6458333 Z"
-       id="path902"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="opacity:1;fill:#ffffff;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       id="path904"
-       sodipodi:type="arc"
-       sodipodi:cx="6.6145835"
-       sodipodi:cy="290.38541"
-       sodipodi:rx="0.66145831"
-       sodipodi:ry="0.66145831"
-       sodipodi:start="0"
-       sodipodi:end="6.2806546"
-       sodipodi:open="true"
-       d="m 7.2760418,290.38541 a 0.66145831,0.66145831 0 0 1 -0.6610398,0.66145 0.66145831,0.66145831 0 0 1 -0.6618763,-0.66062 0.66145831,0.66145831 0 0 1 0.6602023,-0.66229 0.66145831,0.66145831 0 0 1 0.6627117,0.65978" /&gt;
-    &lt;path
-       style="fill:#8b8988;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 7.9374999,286.41665 4.1671871,-6.11849 5.126302,-0.39687 -0.363802,4.994 -6.283854,4.16719 z"
-       id="path910"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="cccccc" /&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;g
+       transform="translate(0.52916671,0.52916686)"
+       id="g26-3"
+       style="fill:#b3b3b3"&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccsccccccc"
+         inkscape:connector-curvature="0"
+         id="path4573-6"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 33,28 16,36 11,58 22.806641,46.193359 C 22.606467,45.827385 22.501052,45.417139 22.5,45 c -10e-6,-1.380709 1.119281,-2.5 2.5,-2.5 1.380719,0 2.50001,1.119291 2.5,2.5 10e-6,1.380709 -1.119281,2.5 -2.5,2.5 -0.417633,-1.29e-4 -0.828579,-0.10488 -1.195312,-0.304688 L 12,59 34,54.000001 42.000001,37 Z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccc"
+         inkscape:connector-curvature="0"
+         id="path4591-7"
+         d="m 8.73125,285.62291 3.175,-4.49792 H 15.875 v 3.96875 l -4.497917,3.175 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;g
+       id="g26"&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccsccccccc"
+         inkscape:connector-curvature="0"
+         id="path4573"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 33,28 16,36 11,58 22.806641,46.193359 C 22.606467,45.827385 22.501052,45.417139 22.5,45 c -10e-6,-1.380709 1.119281,-2.5 2.5,-2.5 1.380719,0 2.50001,1.119291 2.5,2.5 10e-6,1.380709 -1.119281,2.5 -2.5,2.5 -0.417633,-1.29e-4 -0.828579,-0.10488 -1.195312,-0.304688 L 12,59 34,54.000001 42.000001,37 Z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccc"
+         inkscape:connector-curvature="0"
+         id="path4591"
+         d="m 8.73125,285.62291 3.175,-4.49792 H 15.875 v 3.96875 l -4.497917,3.175 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
   &lt;/g&gt;
-&lt;/svg&gt;</t>
+&lt;/svg&gt;
+</t>
   </si>
   <si>
     <t>我的回复</t>
   </si>
   <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="no"?&gt;
 &lt;!-- Created with Inkscape (http://www.inkscape.org/) --&gt;
 &lt;svg
    xmlns:dc="http://purl.org/dc/elements/1.1/"
@@ -1072,10 +1078,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.3 (2405546, 2018-03-11)"
    sodipodi:docname="我的回复.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -1086,32 +1092,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="4.0000002"
-     inkscape:cx="21.000006"
-     inkscape:cy="34.363775"
+     inkscape:zoom="16.000001"
+     inkscape:cx="20.186763"
+     inkscape:cy="53.152428"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
-     inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-width="1920"
+     inkscape:window-height="974"
      inkscape:window-x="0"
-     inkscape:window-y="27"
+     inkscape:window-y="0"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
      inkscape:object-paths="true"
-     inkscape:snap-intersection-paths="true"&gt;
+     inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -1121,7 +1128,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title&gt;&lt;/dc:title&gt;
+        &lt;dc:title /&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -1129,21 +1136,81 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 1.587499,286.41665 v 5.29167 l 6.350001,3.70417 9.525001,-8.99584 v -5.29166 l -9.260419,10.58333 z"
-       id="path842-3"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccc" /&gt;
-    &lt;path
-       style="fill:#37c871;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 1.3229165,285.09373 v 5.29167 l 6.6145835,3.96875 9.260417,-9.26042 v -5.29166 L 7.9374998,290.3854 Z"
-       id="path842"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccc" /&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;g
+       transform="translate(-28.178125,1.719795)"
+       id="g26-3"
+       style="fill:#b3b3b3"&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccsccccccc"
+         inkscape:connector-curvature="0"
+         id="path4573-6"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 33,28 16,36 11,58 22.806641,46.193359 C 22.606467,45.827385 22.501052,45.417139 22.5,45 c -10e-6,-1.380709 1.119281,-2.5 2.5,-2.5 1.380719,0 2.50001,1.119291 2.5,2.5 10e-6,1.380709 -1.119281,2.5 -2.5,2.5 -0.417633,-1.29e-4 -0.828579,-0.10488 -1.195312,-0.304688 L 12,59 34,54.000001 42.000001,37 Z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccc"
+         inkscape:connector-curvature="0"
+         id="path4591-7"
+         d="m 8.73125,285.62291 3.175,-4.49792 H 15.875 v 3.96875 l -4.497917,3.175 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;g
+       id="g26"
+       transform="translate(-28.707292,1.1906281)"&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccsccccccc"
+         inkscape:connector-curvature="0"
+         id="path4573"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 33,28 16,36 11,58 22.806641,46.193359 C 22.606467,45.827385 22.501052,45.417139 22.5,45 c -10e-6,-1.380709 1.119281,-2.5 2.5,-2.5 1.380719,0 2.50001,1.119291 2.5,2.5 10e-6,1.380709 -1.119281,2.5 -2.5,2.5 -0.417633,-1.29e-4 -0.828579,-0.10488 -1.195312,-0.304688 L 12,59 34,54.000001 42.000001,37 Z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+      &lt;path
+         sodipodi:nodetypes="cccccc"
+         inkscape:connector-curvature="0"
+         id="path4591"
+         d="m 8.73125,285.62291 3.175,-4.49792 H 15.875 v 3.96875 l -4.497917,3.175 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;g
+       id="g876"&gt;
+      &lt;path
+         id="path820-3-7"
+         d="m 15.08125,286.41666 c 1.322917,0 1.322917,1.32292 1.322917,1.32292 v 3.96875 c 0,1.32292 -1.322917,1.32291 -1.322917,1.32291 v 1.32292 0.52917 l -2.645833,-1.85208 H 8.4666685 c -1.322917,0 -1.322917,-1.32291 -1.322917,-1.32291 v -3.96875 c 0,-1.32292 1.322917,-1.32292 1.322917,-1.32292 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+         inkscape:connector-curvature="0" /&gt;
+      &lt;path
+         id="path820-3"
+         d="m 14.552083,285.88749 c 1.322917,0 1.322917,1.32292 1.322917,1.32292 v 3.96875 c 0,1.32292 -1.322917,1.32291 -1.322917,1.32291 v 1.32292 0.52917 L 11.90625,292.50208 H 7.9375011 c -1.322917,0 -1.322917,-1.32291 -1.322917,-1.32291 v -3.96875 c 0,-1.32292 1.322917,-1.32292 1.322917,-1.32292 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+         inkscape:connector-curvature="0" /&gt;
+    &lt;/g&gt;
+    &lt;g
+       id="g872"
+       transform="translate(4.9999999e-8,0.79375003)"&gt;
+      &lt;path
+         id="path820-6"
+         d="m 4.4979167,281.65416 c -1.3229168,0 -1.3229167,1.32292 -1.3229167,1.32292 v 3.96875 c 0,1.32292 1.3229167,1.32291 1.3229167,1.32291 v 1.32292 0.52917 L 7.14375,288.26874 h 3.96875 c 1.322917,0 1.322916,-1.32291 1.322916,-1.32291 v -3.96875 c 0,-1.32292 -1.322916,-1.32292 -1.322916,-1.32292 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+         inkscape:connector-curvature="0" /&gt;
+      &lt;path
+         id="path820"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="m 15,10 c -5.0000001,0 -5,5 -5,5 v 15 c 0,5.000013 5,5 5,5 v 5 2 l 10,-7 h 15 c 5.000001,0 5,-5 5,-5 V 15 c 0,-5.0000126 -5,-5 -5,-5 z"
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+         inkscape:connector-curvature="0" /&gt;
+    &lt;/g&gt;
   &lt;/g&gt;
-&lt;/svg&gt;</t>
+&lt;/svg&gt;
+</t>
   </si>
   <si>
     <t>关注</t>
@@ -1530,8 +1597,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1555,23 +1622,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1582,6 +1680,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1596,31 +1711,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1635,47 +1734,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1688,16 +1755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1712,187 +1779,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1919,7 +1986,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1928,7 +1995,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,36 +2042,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1993,148 +2056,152 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2221,7 +2288,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="5C616C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2477,12 +2544,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1025" width="10.9583333333333" customWidth="1"/>
+    <col min="1" max="1025" width="10.9619047619048" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">

--- a/import_toy.xlsx
+++ b/import_toy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11910" tabRatio="500"/>
+    <workbookView windowWidth="19095" windowHeight="8940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1228,10 +1228,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="关注.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -1242,33 +1242,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="5.6568545"
-     inkscape:cx="37.798153"
-     inkscape:cy="36.399471"
+     inkscape:zoom="2.8284273"
+     inkscape:cx="23.251701"
+     inkscape:cy="7.0908035"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
      inkscape:object-paths="true"
      inkscape:snap-intersection-paths="true"
-     showguides="false"&gt;
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -1286,35 +1286,27 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#cccccc;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.9104154,284.29998 v 3.96875 l 6.6145839,6.61459 6.6145837,-6.61459 v -3.96875 l -2.645833,-2.64583 v 0 l -3.9687507,3.96875 -3.9687509,-3.96875 v 0 z"
-       id="path895-7"
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.7041668,285.62291 2.1166667,-2.64583 h 1.3229163 l 2.645834,2.64583 2.6458332,-2.64583 h 1.322917 l 2.116666,2.64583 v 3.175 l -6.0854162,5.29167 -6.085417,-5.29167 z"
+       id="path4572-6"
        inkscape:connector-curvature="0"
        sodipodi:nodetypes="ccccccccccc" /&gt;
     &lt;path
-       style="fill:#bc5fd3;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,283.77081 v 3.96875 l 6.6145834,6.61459 6.6145833,-6.61459 v -3.96875 l -2.645833,-2.64583 v 0 l -3.9687503,3.96875 -3.96875,-3.96875 v 0 z"
-       id="path895"
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.175,285.09374 2.1166667,-2.64583 h 1.3229166 l 2.6458334,2.64583 2.6458333,-2.64583 h 1.322917 l 2.116666,2.64583 v 3.175 L 9.2604167,293.56041 3.175,288.26874 Z"
+       id="path4572"
        inkscape:connector-curvature="0"
        sodipodi:nodetypes="ccccccccccc" /&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,283.77081 3.9687499,3.96875 2.6458334,-2.64583 -3.96875,-3.96875 z"
-       id="path897"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 9.2604166,285.09373 3.9687504,-3.96875 2.645833,2.64583 -3.96875,3.96875 z"
-       id="path899"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#e580ff;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 6.6145832,287.73956 2.6458335,2.64584 2.6458333,-2.64584 -2.6458334,-2.64583 z"
-       id="path901"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -1334,10 +1326,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="粉丝.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -1348,33 +1340,33 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="4.0000002"
-     inkscape:cx="61.196046"
-     inkscape:cy="35.163034"
+     inkscape:zoom="5.6568545"
+     inkscape:cx="45.294901"
+     inkscape:cy="38.156823"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
      inkscape:object-paths="true"
      inkscape:snap-intersection-paths="true"
-     showguides="false"&gt;
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -1392,104 +1384,57 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
     &lt;g
-       id="g894"
-       transform="translate(12.170833,0.52915993)"
-       style="fill:#cccccc"&gt;
+       transform="translate(0.52916687,0.51934844)"
+       id="g4709-1"
+       style="fill:#b3b3b3"&gt;
       &lt;path
-         sodipodi:nodetypes="ccccccc"
          inkscape:connector-curvature="0"
-         id="path851-5"
-         d="m -1.3229159,285.09374 -2.6458338,2.64583 -3e-7,6.61459 h 7.9375 v -6.61459 l -2.6458331,-2.64583 z"
-         style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
+         id="path4559-2"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 34.777344,10.001953 A 12.499999,12.499999 0 0 0 22.5,22.648438 12.499999,12.499999 0 0 0 35.074219,35 12.499999,12.499999 0 0 0 37.710938,34.6875 L 41.5625,30 h 2.8125 l 0.347656,0.339844 A 12.499999,12.499999 0 0 0 47.5,22.5 L 47.4961,22.205078 A 12.499999,12.499999 0 0 0 34.777344,10.001953 Z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:15.39999866;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1" /&gt;
       &lt;path
-         d="m 3.3072917,283.10937 a 3.3072917,3.3072917 0 0 1 -3.30519925,3.3073 3.3072917,3.3072917 0 0 1 -3.30938155,-3.30311 3.3072917,3.3072917 0 0 1 3.30101176,-3.31147 3.3072917,3.3072917 0 0 1 3.31355854,3.29892"
-         sodipodi:open="true"
-         sodipodi:end="6.2806546"
-         sodipodi:start="0"
-         sodipodi:ry="3.3072917"
-         sodipodi:rx="3.3072917"
-         sodipodi:cy="283.10938"
-         sodipodi:cx="8.8817842e-16"
-         sodipodi:type="arc"
-         id="path849-6"
-         style="opacity:1;fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1" /&gt;
+         inkscape:connector-curvature="0"
+         id="path4561-7"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 34.556641,35.003906 A 25.104855,27.499999 0 0 0 10,60.037109 C 10.094114,60.021991 10.185873,60 10.283203,60 H 60 A 25.104855,27.499999 0 0 0 56.154297,47.736328 L 49.9375,53 37,42.046875 v -6.570313 l 0.287109,-0.349609 a 25.104855,27.499999 0 0 0 -2.730468,-0.123047 z"
+         style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:13.53498745;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1" /&gt;
     &lt;/g&gt;
     &lt;path
-       style="fill:#de87aa;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 10.583334,285.35831 -2.6458337,2.64583 -3e-7,6.61459 h 7.9375 v -6.61459 l -2.645833,-2.64583 z"
-       id="path851"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccc" /&gt;
-    &lt;path
-       style="fill:#cccccc;stroke:none;stroke-width:0.07706675px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.988235,282.09682 v 1.14483 l 1.9454659,1.90805 1.9454658,-1.90805 v -1.14483 L 6.1009805,281.3336 v 0 l -1.1672796,1.14483 -1.1672797,-1.14483 v 0 z"
-       id="path895-7"
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.11978617px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 10.847916,288.60892 1.012319,-1.13393 h 0.632699 l 1.265398,1.13393 1.265399,-1.13393 h 0.632699 l 1.012319,1.13393 v 1.36072 l -2.910416,2.26785 -2.910416,-2.26785 z"
+       id="path4572-5-6-2-9-0"
        inkscape:connector-curvature="0"
        sodipodi:nodetypes="ccccccccccc" /&gt;
-    &lt;path
-       style="fill:#bc5fd3;stroke:none;stroke-width:0.07706675px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,281.8882 v 1.14483 l 1.9454658,1.90806 1.9454657,-1.90806 v -1.14483 l -0.7781862,-0.76322 v 0 l -1.1672795,1.14483 -1.1672795,-1.14483 v 0 z"
-       id="path895"
+    &lt;g
+       id="g4709"&gt;
+      &lt;path
+         id="path4559"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 34.777344 10.001953 A 12.499999 12.499999 0 0 0 22.5 22.648438 A 12.499999 12.499999 0 0 0 35.074219 35 A 12.499999 12.499999 0 0 0 37.710938 34.6875 L 41.5625 30 L 44.375 30 L 44.722656 30.339844 A 12.499999 12.499999 0 0 0 47.5 22.5 L 47.496094 22.205078 A 12.499999 12.499999 0 0 0 34.777344 10.001953 z "
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:15.39999866;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1" /&gt;
+      &lt;path
+         id="path4561"
+         transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+         d="M 34.556641 35.003906 A 25.104855 27.499999 0 0 0 10 60.037109 C 10.094114 60.021991 10.185873 60 10.283203 60 L 60 60 A 25.104855 27.499999 0 0 0 56.154297 47.736328 L 49.9375 53 L 37 42.046875 L 37 35.476562 L 37.287109 35.126953 A 25.104855 27.499999 0 0 0 34.556641 35.003906 z "
+         style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:13.53498745;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1" /&gt;
+    &lt;/g&gt;
+    &lt;path
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.11978617px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 10.31875,288.07976 1.012319,-1.13393 h 0.632699 l 1.265398,1.13393 1.265399,-1.13393 h 0.632699 l 1.012319,1.13393 v 1.36072 l -2.910417,2.26785 -2.910416,-2.26785 z"
+       id="path4572-5-6-2-9"
        inkscape:connector-curvature="0"
        sodipodi:nodetypes="ccccccccccc" /&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.07706675px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458333,281.8882 1.1672794,1.14483 0.7781863,-0.76322 -1.1672794,-1.14483 z"
-       id="path897"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.07706675px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 4.591299,282.26981 1.1672796,-1.14483 0.7781862,0.76322 -1.1672794,1.14483 z"
-       id="path899"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#e580ff;stroke:none;stroke-width:0.07706675px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 3.8131127,283.03303 0.7781864,0.76323 0.7781863,-0.76323 -0.7781864,-0.76322 z"
-       id="path901"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
-    &lt;path
-       style="fill:#cccccc;stroke:none;stroke-width:0.07706676px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.9882346,286.59474 v 1.14483 l 1.9454661,1.90805 1.945466,-1.90805 v -1.14483 l -0.778187,-0.76322 v 0 l -1.167279,1.14483 -1.16728,-1.14483 v 0 z"
-       id="path895-7-3"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccccccc" /&gt;
-    &lt;path
-       style="fill:#bc5fd3;stroke:none;stroke-width:0.07706676px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458329,286.44209 v 1.14483 l 1.9454654,1.90806 1.945466,-1.90806 v -1.14483 l -0.778186,-0.76322 v 0 l -1.16728,1.14483 -1.167279,-1.14483 v 0 z"
-       id="path895-6"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccccccccc" /&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.07706676px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.6458329,286.44209 1.1672794,1.14483 0.778186,-0.76322 -1.167279,-1.14483 z"
-       id="path897-7"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#cd87de;stroke:none;stroke-width:0.07706676px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 4.5912983,286.8237 1.16728,-1.14483 0.778186,0.76322 -1.167279,1.14483 z"
-       id="path899-5"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#e580ff;stroke:none;stroke-width:0.07706676px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 3.8131123,287.58692 0.778186,0.76323 0.778187,-0.76323 -0.778187,-0.76322 z"
-       id="path901-3"
-       inkscape:connector-curvature="0"
-       sodipodi:nodetypes="ccccc" /&gt;
-    &lt;path
-       style="opacity:1;fill:#e9afc6;fill-opacity:1;stroke:none;stroke-width:2.3812499;stroke-linejoin:round;stroke-miterlimit:4;stroke-dasharray:none;stroke-opacity:1"
-       id="path849"
-       sodipodi:type="arc"
-       sodipodi:cx="11.90625"
-       sodipodi:cy="283.37393"
-       sodipodi:rx="3.3072915"
-       sodipodi:ry="3.3072915"
-       sodipodi:start="0"
-       sodipodi:end="6.2806546"
-       sodipodi:open="true"
-       d="m 15.213542,283.37393 a 3.3072915,3.3072915 0 0 1 -3.3052,3.30729 3.3072915,3.3072915 0 0 1 -3.3093809,-3.3031 3.3072915,3.3072915 0 0 1 3.3010119,-3.31147 3.3072915,3.3072915 0 0 1 3.313558,3.29891" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -1509,10 +1454,10 @@
    xmlns:inkscape="http://www.inkscape.org/namespaces/inkscape"
    width="70"
    height="70"
-   viewBox="0 0 18.520833 18.520834"
+   viewBox="0 0 18.520834 18.520834"
    version="1.1"
    id="svg8"
-   inkscape:version="0.92.4 5da689c313, 2019-01-14"
+   inkscape:version="0.92.1 r15371"
    sodipodi:docname="消息.svg"&gt;
   &lt;defs
      id="defs2" /&gt;
@@ -1523,33 +1468,34 @@
      borderopacity="1.0"
      inkscape:pageopacity="0.0"
      inkscape:pageshadow="2"
-     inkscape:zoom="8.0000004"
-     inkscape:cx="11.642391"
-     inkscape:cy="40.174274"
+     inkscape:zoom="2.8284273"
+     inkscape:cx="21.886275"
+     inkscape:cy="51.917402"
      inkscape:document-units="mm"
      inkscape:current-layer="layer1"
      showgrid="true"
      units="px"
      inkscape:window-width="1280"
-     inkscape:window-height="715"
+     inkscape:window-height="745"
      inkscape:window-x="0"
      inkscape:window-y="27"
      inkscape:window-maximized="1"
      inkscape:snap-global="true"
      inkscape:snap-bbox="true"
-     inkscape:object-nodes="true"
-     inkscape:snap-others="false"
-     inkscape:snap-nodes="true"
+     inkscape:bbox-paths="true"
      inkscape:bbox-nodes="true"
+     inkscape:snap-bbox-edge-midpoints="true"
      inkscape:snap-bbox-midpoints="true"
-     inkscape:snap-bbox-edge-midpoints="true"
-     inkscape:bbox-paths="false"
      inkscape:object-paths="true"
      inkscape:snap-intersection-paths="true"
+     inkscape:snap-smooth-nodes="true"
+     inkscape:snap-midpoints="true"
+     inkscape:snap-object-midpoints="true"
+     inkscape:snap-center="true"
      showguides="false"&gt;
     &lt;inkscape:grid
        type="xygrid"
-       id="grid815" /&gt;
+       id="grid10" /&gt;
   &lt;/sodipodi:namedview&gt;
   &lt;metadata
      id="metadata5"&gt;
@@ -1559,7 +1505,7 @@
         &lt;dc:format&gt;image/svg+xml&lt;/dc:format&gt;
         &lt;dc:type
            rdf:resource="http://purl.org/dc/dcmitype/StillImage" /&gt;
-        &lt;dc:title&gt;&lt;/dc:title&gt;
+        &lt;dc:title /&gt;
       &lt;/cc:Work&gt;
     &lt;/rdf:RDF&gt;
   &lt;/metadata&gt;
@@ -1567,27 +1513,28 @@
      inkscape:label="Layer 1"
      inkscape:groupmode="layer"
      id="layer1"
-     transform="translate(0,-278.47915)"&gt;
-    &lt;path
-       style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
-       d="m 2.9104163,283.24165 v 10.58333 H 16.139584 v -10.58333 z"
-       id="path915-2"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
+     transform="translate(0,-278.47916)"&gt;
+    &lt;rect
+       id="rect12"
+       width="18.520834"
+       height="18.520838"
+       x="-3.1789145e-07"
+       y="278.47916"
+       style="fill:#c9d6e0;fill-opacity:1;stroke-width:0.26458329"
+       ry="0.79375339" /&gt;
+    &lt;path
+       style="fill:#b3b3b3;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="m 3.174999,282.97708 6.6145837,4.7625 6.6145843,-4.7625 z m 0,1.05833 v 9.525 h 13.229168 v -9.525 l -6.6145843,4.7625 z"
+       id="path4511-3"
        inkscape:connector-curvature="0"
-       id="path937"
-       d="m 2.9104153,283.24165 v 10.58333 H 16.139583 v -10.58333 z"
-       style="fill:#cccccc;fill-opacity:1;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1" /&gt;
-    &lt;path
-       style="fill:#e3a370;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="m 2.6458333,282.4479 v 10.58333 H 15.875 V 282.4479 Z"
-       id="path915"
-       inkscape:connector-curvature="0" /&gt;
-    &lt;path
-       style="fill:#c1845e;stroke:none;stroke-width:0.26458332px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1;fill-opacity:1"
-       d="M 2.6458333,282.4479 9.2604166,289.06248 15.875,282.4479 Z"
-       id="path917"
-       inkscape:connector-curvature="0" /&gt;
+       sodipodi:nodetypes="cccccccccc" /&gt;
+    &lt;path
+       style="fill:#f9f9f9;fill-opacity:1;stroke:none;stroke-width:0.99999994px;stroke-linecap:butt;stroke-linejoin:miter;stroke-opacity:1"
+       d="M 10,15 35,33 60,15 Z m 0,4 0,36 h 50 l 10e-7,-36 L 35,37 Z"
+       transform="matrix(0.26458333,0,0,0.26458333,0,278.47916)"
+       id="path4511"
+       inkscape:connector-curvature="0"
+       sodipodi:nodetypes="cccccccccc" /&gt;
   &lt;/g&gt;
 &lt;/svg&gt;</t>
   </si>
@@ -1598,9 +1545,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1621,11 +1568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1635,9 +1580,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1645,6 +1592,13 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1656,9 +1610,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,95 +1710,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1779,19 +1726,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,13 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,7 +1834,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,133 +1870,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,50 +1925,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2070,138 +1973,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2288,7 +2235,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="5C616C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2544,12 +2491,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1025" width="10.9619047619048" customWidth="1"/>
+    <col min="1" max="1025" width="10.9583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
